--- a/xlsx/IOS_intext.xlsx
+++ b/xlsx/IOS_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="747">
   <si>
     <t>IOS</t>
   </si>
@@ -29,13 +29,13 @@
     <t>思科</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_IOS</t>
+    <t>政策_政策_维基百科_IOS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>作業系統</t>
+    <t>作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91IOS</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/Swift_(%E7%A8%8B%E5%BC%8F%E8%AA%9E%E8%A8%80)</t>
   </si>
   <si>
-    <t>Swift (程式語言)</t>
+    <t>Swift (程式语言)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Darwin_(%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F)</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%87%BA%E7%89%88%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件出版週期</t>
+    <t>软件出版周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AF%AD%E8%A8%80</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%BB%9E%E8%A7%B8%E6%8E%A7</t>
   </si>
   <si>
-    <t>多點觸控</t>
+    <t>多点触控</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E5%BD%A2%E7%94%A8%E6%88%B7%E7%95%8C%E9%9D%A2</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>行動作業系統</t>
+    <t>行动作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IPhone</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/Home%E9%8D%B5</t>
   </si>
   <si>
-    <t>Home鍵</t>
+    <t>Home键</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Siri</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%8A%E6%81%AF_(%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F)</t>
   </si>
   <si>
-    <t>訊息 (應用程式)</t>
+    <t>讯息 (应用程式)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%BA%8B%E6%9B%86_(%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F)</t>
   </si>
   <si>
-    <t>行事曆 (應用程式)</t>
+    <t>行事历 (应用程式)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FaceTime</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%BE%B7%E5%9C%B0%E5%9C%96</t>
   </si>
   <si>
-    <t>高德地圖</t>
+    <t>高德地图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Game_Center</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>喬布斯</t>
+    <t>乔布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E5%BC%80%E5%8F%91%E5%B7%A5%E5%85%B7%E5%8C%85</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E9%8C%84_(OS_X)</t>
   </si>
   <si>
-    <t>通訊錄 (OS X)</t>
+    <t>通讯录 (OS X)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apple_Music</t>
@@ -1001,19 +1001,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E4%BB%B6_(OS_X)</t>
   </si>
   <si>
-    <t>郵件 (OS X)</t>
+    <t>邮件 (OS X)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%99%E5%BF%98%E9%8C%84_(%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F)</t>
   </si>
   <si>
-    <t>備忘錄 (應用程式)</t>
+    <t>备忘录 (应用程式)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E9%86%92%E4%BA%8B%E9%A0%85_(%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F)</t>
   </si>
   <si>
-    <t>提醒事項 (應用程式)</t>
+    <t>提醒事项 (应用程式)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%AD%E5%AE%A2</t>
@@ -1037,13 +1037,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8B%E6%89%BE%E6%88%91%E7%9A%84iPhone</t>
   </si>
   <si>
-    <t>尋找我的iPhone</t>
+    <t>寻找我的iPhone</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8B%E6%89%BE%E6%88%91%E7%9A%84%E6%9C%8B%E5%8F%8B</t>
   </si>
   <si>
-    <t>尋找我的朋友</t>
+    <t>寻找我的朋友</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GarageBand</t>
@@ -1091,9 +1091,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E7%8D%84_(iOS)</t>
   </si>
   <si>
-    <t>越獄 (iOS)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Apple_Newton</t>
   </si>
   <si>
@@ -1121,9 +1118,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E5%A4%AB%C2%B7%E4%B9%94%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
@@ -1145,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%9D%8E%E8%B2%9D%E7%88%BE_(%E5%95%86%E6%A5%AD%E5%9F%B7%E8%A1%8C%E9%95%B7)</t>
   </si>
   <si>
-    <t>威廉·坎貝爾 (商業執行長)</t>
+    <t>威廉·坎贝尔 (商业执行长)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Millard_Drexler</t>
@@ -1169,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8D%BE%E5%BD%AC%E5%AB%BB</t>
   </si>
   <si>
-    <t>鍾彬嫻</t>
+    <t>锺彬娴</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ronald_Sugar</t>
@@ -1181,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E5%8B%83%C2%B7%E4%BC%8A%E6%88%88%E7%88%BE</t>
   </si>
   <si>
-    <t>鮑勃·伊戈爾</t>
+    <t>鲍勃·伊戈尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jerry_York</t>
@@ -1205,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A7%86%C2%B7%E5%BA%AB%E5%85%8B</t>
   </si>
   <si>
-    <t>提姆·庫克</t>
+    <t>提姆·库克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eddy_Cue</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%BC%C2%B7%E6%B3%95%E6%88%B4%E7%88%BE</t>
   </si>
   <si>
-    <t>托尼·法戴爾</t>
+    <t>托尼·法戴尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mark_Papermaster</t>
@@ -1295,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%81%A9%C2%B7%E9%AD%AF%E8%B3%93%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>喬恩·魯賓斯坦</t>
+    <t>乔恩·鲁宾斯坦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nancy_R._Heinen</t>
@@ -1439,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E6%A8%99%E6%BA%96%E9%8D%B5%E7%9B%A4</t>
   </si>
   <si>
-    <t>蘋果標準鍵盤</t>
+    <t>苹果标准键盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apple_TV</t>
@@ -1589,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%9C%92%E5%8D%80</t>
   </si>
   <si>
-    <t>蘋果園區</t>
+    <t>苹果园区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1984_(%E5%B9%BF%E5%91%8A)</t>
@@ -1631,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E9%9F%B3%E6%A8%82%E7%AF%80</t>
   </si>
   <si>
-    <t>蘋果音樂節</t>
+    <t>苹果音乐节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%85%8B%E6%96%AF%E5%8A%A8%E7%94%BB%E5%B7%A5%E4%BD%9C%E5%AE%A4</t>
@@ -1643,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E7%9A%84%E8%8B%B1%E7%89%B9%E7%88%BE%E5%B9%B3%E5%8F%B0%E9%81%B7%E7%A7%BB</t>
   </si>
   <si>
-    <t>蘋果的英特爾平台遷移</t>
+    <t>苹果的英特尔平台迁移</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IOS%E5%BA%94%E7%94%A8%E7%A8%8B%E5%BA%8F%E5%AE%A1%E6%A0%B8</t>
@@ -1775,7 +1769,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%AF%A6%E9%A9%97%E5%AE%A4%E4%B9%9D%E8%99%9F%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>貝爾實驗室九號計畫</t>
+    <t>贝尔实验室九号计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/QNX</t>
@@ -1931,7 +1925,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6%E9%9B%B2OS</t>
   </si>
   <si>
-    <t>百度雲OS</t>
+    <t>百度云OS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MIUI</t>
@@ -2099,7 +2093,7 @@
     <t>https://zh.wikipedia.org/wiki/Windows_10%E8%A1%8C%E5%8B%95%E7%89%88</t>
   </si>
   <si>
-    <t>Windows 10行動版</t>
+    <t>Windows 10行动版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BlackBerry_OS</t>
@@ -2171,7 +2165,7 @@
     <t>https://zh.wikipedia.org/wiki/PlayStation_Portable%E7%B3%BB%E7%B5%B1%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>PlayStation Portable系統軟體</t>
+    <t>PlayStation Portable系统软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PlayStation_Vita%E7%B3%BB%E7%BB%9F%E8%BD%AF%E4%BB%B6</t>
@@ -2243,19 +2237,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%BB%9F%E9%AB%94%E7%99%BC%E8%A1%8C%E5%B9%B3%E5%8F%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>行動軟體發行平台列表</t>
+    <t>行动软体发行平台列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%89%8B%E6%A9%9F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>開放手機聯盟</t>
+    <t>开放手机联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E7%A7%BB%E5%8B%95%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>開放移動聯盟</t>
+    <t>开放移动联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_application_development</t>
@@ -8809,7 +8803,7 @@
         <v>357</v>
       </c>
       <c r="F214" t="s">
-        <v>358</v>
+        <v>182</v>
       </c>
       <c r="G214" t="n">
         <v>12</v>
@@ -8835,10 +8829,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>358</v>
+      </c>
+      <c r="F215" t="s">
         <v>359</v>
-      </c>
-      <c r="F215" t="s">
-        <v>360</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8864,10 +8858,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>360</v>
+      </c>
+      <c r="F216" t="s">
         <v>361</v>
-      </c>
-      <c r="F216" t="s">
-        <v>362</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8893,10 +8887,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>362</v>
+      </c>
+      <c r="F217" t="s">
         <v>363</v>
-      </c>
-      <c r="F217" t="s">
-        <v>364</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8922,10 +8916,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>364</v>
+      </c>
+      <c r="F218" t="s">
         <v>365</v>
-      </c>
-      <c r="F218" t="s">
-        <v>366</v>
       </c>
       <c r="G218" t="n">
         <v>6</v>
@@ -8951,10 +8945,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F219" t="s">
-        <v>368</v>
+        <v>14</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8980,10 +8974,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F220" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9009,10 +9003,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F221" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9038,10 +9032,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F222" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9067,10 +9061,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F223" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9096,10 +9090,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F224" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9125,10 +9119,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F225" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9154,10 +9148,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F226" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9183,10 +9177,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F227" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9212,10 +9206,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F228" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9241,10 +9235,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F229" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9270,10 +9264,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F230" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9299,10 +9293,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F231" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9328,10 +9322,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F232" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9357,10 +9351,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F233" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9386,10 +9380,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F234" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9415,10 +9409,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F235" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9444,10 +9438,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F236" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9473,10 +9467,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F237" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9502,10 +9496,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F238" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9531,10 +9525,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F239" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9560,10 +9554,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F240" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9589,10 +9583,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F241" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9618,10 +9612,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F242" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9647,10 +9641,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F243" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9676,10 +9670,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F244" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9705,10 +9699,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F245" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9734,10 +9728,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F246" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9763,10 +9757,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F247" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9792,10 +9786,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F248" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9821,10 +9815,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F249" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9850,10 +9844,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F250" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9879,10 +9873,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F251" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9908,10 +9902,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F252" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -9937,10 +9931,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F253" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9966,10 +9960,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F254" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9995,10 +9989,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F255" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10024,10 +10018,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F256" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10053,10 +10047,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F257" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G257" t="n">
         <v>23</v>
@@ -10082,10 +10076,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F258" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10111,10 +10105,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F259" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10140,10 +10134,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F260" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10169,10 +10163,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F261" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10198,10 +10192,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F262" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10227,10 +10221,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F263" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G263" t="n">
         <v>17</v>
@@ -10256,10 +10250,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F264" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G264" t="n">
         <v>18</v>
@@ -10285,10 +10279,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F265" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G265" t="n">
         <v>8</v>
@@ -10343,10 +10337,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F267" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10372,10 +10366,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F268" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10401,10 +10395,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F269" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10546,10 +10540,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F274" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G274" t="n">
         <v>16</v>
@@ -10604,10 +10598,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F276" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10633,10 +10627,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F277" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10662,10 +10656,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F278" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10691,10 +10685,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F279" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10720,10 +10714,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F280" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10749,10 +10743,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F281" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10778,10 +10772,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F282" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10836,10 +10830,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F284" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10865,10 +10859,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F285" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10894,10 +10888,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F286" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10923,10 +10917,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F287" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -10952,10 +10946,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F288" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -10981,10 +10975,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F289" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11010,10 +11004,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F290" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11039,10 +11033,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F291" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11068,10 +11062,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F292" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11097,10 +11091,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F293" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -11126,10 +11120,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F294" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11155,10 +11149,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F295" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11184,10 +11178,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F296" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11213,10 +11207,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F297" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11242,10 +11236,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F298" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11271,10 +11265,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F299" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11300,10 +11294,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F300" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11329,10 +11323,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F301" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11358,10 +11352,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F302" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11387,10 +11381,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F303" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11416,10 +11410,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F304" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11445,10 +11439,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F305" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11474,10 +11468,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F306" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11503,10 +11497,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F307" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11532,10 +11526,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F308" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G308" t="n">
         <v>5</v>
@@ -11561,10 +11555,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F309" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11590,10 +11584,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F310" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G310" t="n">
         <v>4</v>
@@ -11648,10 +11642,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F312" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11677,10 +11671,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F313" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11706,10 +11700,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F314" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11735,10 +11729,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F315" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11764,10 +11758,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F316" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G316" t="n">
         <v>7</v>
@@ -11822,10 +11816,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F318" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G318" t="n">
         <v>10</v>
@@ -11851,10 +11845,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F319" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11880,10 +11874,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F320" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11909,10 +11903,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F321" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -11938,10 +11932,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F322" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -11967,10 +11961,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F323" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11996,10 +11990,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F324" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12025,10 +12019,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F325" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12054,10 +12048,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F326" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12083,10 +12077,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F327" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12112,10 +12106,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F328" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12141,10 +12135,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F329" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12170,10 +12164,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F330" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12199,10 +12193,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F331" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12228,10 +12222,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F332" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12257,10 +12251,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F333" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G333" t="n">
         <v>8</v>
@@ -12286,10 +12280,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F334" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12315,10 +12309,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F335" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12344,10 +12338,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F336" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12373,10 +12367,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F337" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12402,10 +12396,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F338" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12431,10 +12425,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F339" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12460,10 +12454,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F340" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12489,10 +12483,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F341" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12518,10 +12512,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F342" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12547,10 +12541,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F343" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12576,10 +12570,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F344" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12605,10 +12599,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F345" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12634,10 +12628,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F346" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -12663,10 +12657,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F347" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -12692,10 +12686,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F348" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12721,10 +12715,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F349" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12750,10 +12744,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F350" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -12779,10 +12773,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F351" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12808,10 +12802,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F352" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12837,10 +12831,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F353" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -12866,10 +12860,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F354" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -12895,10 +12889,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F355" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -12924,10 +12918,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F356" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -12953,10 +12947,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F357" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -12982,10 +12976,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F358" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13011,10 +13005,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F359" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13040,10 +13034,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F360" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13069,10 +13063,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F361" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13098,10 +13092,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F362" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13127,10 +13121,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F363" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13156,10 +13150,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F364" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13185,10 +13179,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F365" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13214,10 +13208,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F366" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13243,10 +13237,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F367" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13272,10 +13266,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F368" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13301,10 +13295,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F369" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13330,10 +13324,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F370" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13359,10 +13353,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F371" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13388,10 +13382,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F372" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13417,10 +13411,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F373" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13446,10 +13440,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F374" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13475,10 +13469,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F375" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13504,10 +13498,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F376" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -13533,10 +13527,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F377" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13562,10 +13556,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F378" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -13591,10 +13585,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F379" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13620,10 +13614,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F380" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13649,10 +13643,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F381" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13678,10 +13672,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F382" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13707,10 +13701,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F383" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13736,10 +13730,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F384" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13765,10 +13759,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F385" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13794,10 +13788,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F386" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13823,10 +13817,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F387" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13852,10 +13846,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F388" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13881,10 +13875,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F389" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -13910,10 +13904,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F390" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -13939,10 +13933,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F391" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -13968,10 +13962,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F392" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -13997,10 +13991,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F393" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14026,10 +14020,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F394" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14055,10 +14049,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F395" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14084,10 +14078,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F396" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14113,10 +14107,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F397" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -14142,10 +14136,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F398" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14171,10 +14165,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F399" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14200,10 +14194,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F400" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14229,10 +14223,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F401" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14258,10 +14252,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F402" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14287,10 +14281,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F403" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14316,10 +14310,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F404" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14345,10 +14339,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F405" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14374,10 +14368,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F406" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -14403,10 +14397,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F407" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14432,10 +14426,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F408" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14461,10 +14455,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F409" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14490,10 +14484,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F410" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14519,10 +14513,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F411" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14548,10 +14542,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F412" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14577,10 +14571,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F413" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14606,10 +14600,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F414" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14635,10 +14629,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F415" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14664,10 +14658,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F416" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14693,10 +14687,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F417" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14722,10 +14716,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F418" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
